--- a/Amb_linear_data.xlsx
+++ b/Amb_linear_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20A4CBB5-2BDF-D947-85CB-111931F37AAB}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{626EEF39-93C9-3B4A-96F2-684A320B8D63}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="569">
   <si>
     <t>Specimen</t>
   </si>
@@ -1348,9 +1348,6 @@
     <t>A.tigrinum</t>
   </si>
   <si>
-    <t>TxVP</t>
-  </si>
-  <si>
     <t>A.mavortium_TNHC_106097</t>
   </si>
   <si>
@@ -1382,6 +1379,354 @@
   </si>
   <si>
     <t>A.mavortium_TNHC_91625</t>
+  </si>
+  <si>
+    <t>41229-10854</t>
+  </si>
+  <si>
+    <t>41229-10899</t>
+  </si>
+  <si>
+    <t>41229-10074</t>
+  </si>
+  <si>
+    <t>41229-10996</t>
+  </si>
+  <si>
+    <t>41229-11011</t>
+  </si>
+  <si>
+    <t>41229-11012</t>
+  </si>
+  <si>
+    <t>41229-11249</t>
+  </si>
+  <si>
+    <t>41229-25000</t>
+  </si>
+  <si>
+    <t>41229-25015</t>
+  </si>
+  <si>
+    <t>41229-25017</t>
+  </si>
+  <si>
+    <t>41229-25018</t>
+  </si>
+  <si>
+    <t>41229-25019</t>
+  </si>
+  <si>
+    <t>41229-25023</t>
+  </si>
+  <si>
+    <t>41229-25024</t>
+  </si>
+  <si>
+    <t>41229-25025</t>
+  </si>
+  <si>
+    <t>41229-25031</t>
+  </si>
+  <si>
+    <t>41229-25033</t>
+  </si>
+  <si>
+    <t>41229-25034</t>
+  </si>
+  <si>
+    <t>41229-25042</t>
+  </si>
+  <si>
+    <t>41229-25096</t>
+  </si>
+  <si>
+    <t>41229-25101</t>
+  </si>
+  <si>
+    <t>41229-25106</t>
+  </si>
+  <si>
+    <t>41229-25107</t>
+  </si>
+  <si>
+    <t>41229-25108</t>
+  </si>
+  <si>
+    <t>41229-25109</t>
+  </si>
+  <si>
+    <t>41229-25110</t>
+  </si>
+  <si>
+    <t>41229-25111</t>
+  </si>
+  <si>
+    <t>41229-25112</t>
+  </si>
+  <si>
+    <t>41229-25113</t>
+  </si>
+  <si>
+    <t>41229-25114</t>
+  </si>
+  <si>
+    <t>41229-25115</t>
+  </si>
+  <si>
+    <t>41229-25116</t>
+  </si>
+  <si>
+    <t>41229-25125</t>
+  </si>
+  <si>
+    <t>41229-25126</t>
+  </si>
+  <si>
+    <t>41229-25128</t>
+  </si>
+  <si>
+    <t>41229-25129</t>
+  </si>
+  <si>
+    <t>41229-25133</t>
+  </si>
+  <si>
+    <t>41229-25134</t>
+  </si>
+  <si>
+    <t>41229-25135</t>
+  </si>
+  <si>
+    <t>41229-25137</t>
+  </si>
+  <si>
+    <t>41229-25141</t>
+  </si>
+  <si>
+    <t>41229-25142</t>
+  </si>
+  <si>
+    <t>41229-25143</t>
+  </si>
+  <si>
+    <t>41229-25144</t>
+  </si>
+  <si>
+    <t>41229-25145</t>
+  </si>
+  <si>
+    <t>41229-25146</t>
+  </si>
+  <si>
+    <t>41229-25151</t>
+  </si>
+  <si>
+    <t>41229-25161</t>
+  </si>
+  <si>
+    <t>41229-25163</t>
+  </si>
+  <si>
+    <t>41229-25164</t>
+  </si>
+  <si>
+    <t>41229-25165</t>
+  </si>
+  <si>
+    <t>41229-25167</t>
+  </si>
+  <si>
+    <t>41229-25172</t>
+  </si>
+  <si>
+    <t>41229-25173</t>
+  </si>
+  <si>
+    <t>41229-25174</t>
+  </si>
+  <si>
+    <t>41229-25176</t>
+  </si>
+  <si>
+    <t>41229-25177</t>
+  </si>
+  <si>
+    <t>41229-25178</t>
+  </si>
+  <si>
+    <t>41229-25179</t>
+  </si>
+  <si>
+    <t>41229-25180</t>
+  </si>
+  <si>
+    <t>41229-25181</t>
+  </si>
+  <si>
+    <t>41229-25182</t>
+  </si>
+  <si>
+    <t>41229-25183</t>
+  </si>
+  <si>
+    <t>41229-25184</t>
+  </si>
+  <si>
+    <t>41229-25187</t>
+  </si>
+  <si>
+    <t>41229-25190</t>
+  </si>
+  <si>
+    <t>41229-25193</t>
+  </si>
+  <si>
+    <t>41229-25197</t>
+  </si>
+  <si>
+    <t>41229-25200</t>
+  </si>
+  <si>
+    <t>41229-25201</t>
+  </si>
+  <si>
+    <t>41229-25209</t>
+  </si>
+  <si>
+    <t>41229-25210</t>
+  </si>
+  <si>
+    <t>41229-25213</t>
+  </si>
+  <si>
+    <t>41229-25214</t>
+  </si>
+  <si>
+    <t>41229-25215</t>
+  </si>
+  <si>
+    <t>41229-25217</t>
+  </si>
+  <si>
+    <t>41229-25218</t>
+  </si>
+  <si>
+    <t>41229-25220</t>
+  </si>
+  <si>
+    <t>41229-25221</t>
+  </si>
+  <si>
+    <t>41229-25224</t>
+  </si>
+  <si>
+    <t>41229-25230</t>
+  </si>
+  <si>
+    <t>41229-25231</t>
+  </si>
+  <si>
+    <t>41229-25232</t>
+  </si>
+  <si>
+    <t>41229-25233</t>
+  </si>
+  <si>
+    <t>41229-25234</t>
+  </si>
+  <si>
+    <t>41229-25235</t>
+  </si>
+  <si>
+    <t>41229-25245</t>
+  </si>
+  <si>
+    <t>41229-25247</t>
+  </si>
+  <si>
+    <t>41229-25254</t>
+  </si>
+  <si>
+    <t>41229-25255</t>
+  </si>
+  <si>
+    <t>41229-25258</t>
+  </si>
+  <si>
+    <t>41229-25260</t>
+  </si>
+  <si>
+    <t>41229-25262</t>
+  </si>
+  <si>
+    <t>41229-25268</t>
+  </si>
+  <si>
+    <t>41229-25269</t>
+  </si>
+  <si>
+    <t>41229-25270</t>
+  </si>
+  <si>
+    <t>41229-25271</t>
+  </si>
+  <si>
+    <t>41229-25272</t>
+  </si>
+  <si>
+    <t>41229-25273</t>
+  </si>
+  <si>
+    <t>41229-25274</t>
+  </si>
+  <si>
+    <t>41229-25275</t>
+  </si>
+  <si>
+    <t>41229-25276</t>
+  </si>
+  <si>
+    <t>41229-25277</t>
+  </si>
+  <si>
+    <t>41229-25278</t>
+  </si>
+  <si>
+    <t>41229-25279</t>
+  </si>
+  <si>
+    <t>41229-25280</t>
+  </si>
+  <si>
+    <t>41229-25281</t>
+  </si>
+  <si>
+    <t>41229-25282</t>
+  </si>
+  <si>
+    <t>41229-25291</t>
+  </si>
+  <si>
+    <t>41229-25293</t>
+  </si>
+  <si>
+    <t>41229-25294</t>
+  </si>
+  <si>
+    <t>41229-25295</t>
+  </si>
+  <si>
+    <t>41229-25296</t>
+  </si>
+  <si>
+    <t>41229-25297</t>
+  </si>
+  <si>
+    <t>41229-25298</t>
+  </si>
+  <si>
+    <t>41229-25300</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +2081,10 @@
   <dimension ref="A1:BD247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
+      <selection pane="bottomRight" activeCell="BC132" sqref="BC132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13010,7 +13355,7 @@
         <v>4.5</v>
       </c>
       <c r="BC70" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BD70" t="s">
         <v>435</v>
@@ -13484,7 +13829,7 @@
         <v>133</v>
       </c>
       <c r="BC73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BD73" t="s">
         <v>435</v>
@@ -13645,7 +13990,7 @@
         <v>307</v>
       </c>
       <c r="BC74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BD74" t="s">
         <v>435</v>
@@ -13794,7 +14139,7 @@
         <v>212</v>
       </c>
       <c r="BC75" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BD75" t="s">
         <v>435</v>
@@ -13934,7 +14279,7 @@
         <v>210</v>
       </c>
       <c r="BC76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BD76" t="s">
         <v>435</v>
@@ -14101,7 +14446,7 @@
         <v>305</v>
       </c>
       <c r="BC77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BD77" t="s">
         <v>435</v>
@@ -14268,7 +14613,7 @@
         <v>306</v>
       </c>
       <c r="BC78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BD78" t="s">
         <v>435</v>
@@ -14414,7 +14759,7 @@
         <v>307</v>
       </c>
       <c r="BC79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BD79" t="s">
         <v>435</v>
@@ -14569,7 +14914,7 @@
         <v>3.92</v>
       </c>
       <c r="BC80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BD80" t="s">
         <v>435</v>
@@ -14724,7 +15069,7 @@
         <v>4</v>
       </c>
       <c r="BC81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BD81" t="s">
         <v>435</v>
@@ -14879,7 +15224,7 @@
         <v>3.97</v>
       </c>
       <c r="BC82" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BD82" t="s">
         <v>435</v>
@@ -22848,7 +23193,7 @@
         <v>4.54</v>
       </c>
       <c r="BD132" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:56" x14ac:dyDescent="0.2">
@@ -22889,7 +23234,7 @@
         <v>4.41</v>
       </c>
       <c r="BD133" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:56" x14ac:dyDescent="0.2">
@@ -22930,7 +23275,7 @@
         <v>4.08</v>
       </c>
       <c r="BD134" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:56" x14ac:dyDescent="0.2">
@@ -22971,7 +23316,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="BD135" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:56" x14ac:dyDescent="0.2">
@@ -23009,7 +23354,7 @@
         <v>5.23</v>
       </c>
       <c r="BD136" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:56" x14ac:dyDescent="0.2">
@@ -23032,7 +23377,7 @@
         <v>4.91</v>
       </c>
       <c r="BD137" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="1:56" x14ac:dyDescent="0.2">
@@ -23052,7 +23397,7 @@
         <v>5.62</v>
       </c>
       <c r="BD138" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="1:56" x14ac:dyDescent="0.2">
@@ -23084,7 +23429,7 @@
         <v>1.85</v>
       </c>
       <c r="BD139" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:56" x14ac:dyDescent="0.2">
@@ -23113,7 +23458,7 @@
         <v>4.7</v>
       </c>
       <c r="BD140" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:56" x14ac:dyDescent="0.2">
@@ -23154,7 +23499,7 @@
         <v>5.13</v>
       </c>
       <c r="BD141" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
     </row>
     <row r="142" spans="1:56" x14ac:dyDescent="0.2">
@@ -23192,7 +23537,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD142" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:56" x14ac:dyDescent="0.2">
@@ -23230,7 +23575,7 @@
         <v>4.29</v>
       </c>
       <c r="BD143" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:56" x14ac:dyDescent="0.2">
@@ -23250,7 +23595,7 @@
         <v>5.08</v>
       </c>
       <c r="BD144" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:56" x14ac:dyDescent="0.2">
@@ -23291,7 +23636,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="BD145" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:56" x14ac:dyDescent="0.2">
@@ -23326,7 +23671,7 @@
         <v>3.57</v>
       </c>
       <c r="BD146" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:56" x14ac:dyDescent="0.2">
@@ -23349,7 +23694,7 @@
         <v>6.66</v>
       </c>
       <c r="BD147" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:56" x14ac:dyDescent="0.2">
@@ -23378,7 +23723,7 @@
         <v>4.17</v>
       </c>
       <c r="BD148" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
     </row>
     <row r="149" spans="1:56" x14ac:dyDescent="0.2">
@@ -23419,7 +23764,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD149" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="1:56" x14ac:dyDescent="0.2">
@@ -23442,7 +23787,7 @@
         <v>6.14</v>
       </c>
       <c r="BD150" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:56" x14ac:dyDescent="0.2">
@@ -23483,7 +23828,7 @@
         <v>4.18</v>
       </c>
       <c r="BD151" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="1:56" x14ac:dyDescent="0.2">
@@ -23503,7 +23848,7 @@
         <v>1.66</v>
       </c>
       <c r="BD152" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="153" spans="1:56" x14ac:dyDescent="0.2">
@@ -23523,7 +23868,7 @@
         <v>3.33</v>
       </c>
       <c r="BD153" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:56" x14ac:dyDescent="0.2">
@@ -23552,7 +23897,7 @@
         <v>3.28</v>
       </c>
       <c r="BD154" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="1:56" x14ac:dyDescent="0.2">
@@ -23581,7 +23926,7 @@
         <v>3.65</v>
       </c>
       <c r="BD155" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="156" spans="1:56" x14ac:dyDescent="0.2">
@@ -23595,7 +23940,7 @@
         <v>3.22</v>
       </c>
       <c r="BD156" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:56" x14ac:dyDescent="0.2">
@@ -23636,7 +23981,7 @@
         <v>3.78</v>
       </c>
       <c r="BD157" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" spans="1:56" x14ac:dyDescent="0.2">
@@ -23677,7 +24022,7 @@
         <v>4.83</v>
       </c>
       <c r="BD158" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="159" spans="1:56" x14ac:dyDescent="0.2">
@@ -23706,7 +24051,7 @@
         <v>3.15</v>
       </c>
       <c r="BD159" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160" spans="1:56" x14ac:dyDescent="0.2">
@@ -23747,7 +24092,7 @@
         <v>4.37</v>
       </c>
       <c r="BD160" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:56" x14ac:dyDescent="0.2">
@@ -23788,7 +24133,7 @@
         <v>4.41</v>
       </c>
       <c r="BD161" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:56" x14ac:dyDescent="0.2">
@@ -23814,7 +24159,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="BD162" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:56" x14ac:dyDescent="0.2">
@@ -23855,7 +24200,7 @@
         <v>4.32</v>
       </c>
       <c r="BD163" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:56" x14ac:dyDescent="0.2">
@@ -23872,7 +24217,7 @@
         <v>5.36</v>
       </c>
       <c r="BD164" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
     </row>
     <row r="165" spans="1:56" x14ac:dyDescent="0.2">
@@ -23898,7 +24243,7 @@
         <v>5.52</v>
       </c>
       <c r="BD165" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" spans="1:56" x14ac:dyDescent="0.2">
@@ -23927,7 +24272,7 @@
         <v>3.57</v>
       </c>
       <c r="BD166" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
     </row>
     <row r="167" spans="1:56" x14ac:dyDescent="0.2">
@@ -23956,7 +24301,7 @@
         <v>3.46</v>
       </c>
       <c r="BD167" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:56" x14ac:dyDescent="0.2">
@@ -23997,7 +24342,7 @@
         <v>4.58</v>
       </c>
       <c r="BD168" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:56" x14ac:dyDescent="0.2">
@@ -24038,7 +24383,7 @@
         <v>4.12</v>
       </c>
       <c r="BD169" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="1:56" x14ac:dyDescent="0.2">
@@ -24079,7 +24424,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="BD170" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="171" spans="1:56" x14ac:dyDescent="0.2">
@@ -24105,7 +24450,7 @@
         <v>4.42</v>
       </c>
       <c r="BD171" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:56" x14ac:dyDescent="0.2">
@@ -24146,7 +24491,7 @@
         <v>4.78</v>
       </c>
       <c r="BD172" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:56" x14ac:dyDescent="0.2">
@@ -24175,7 +24520,7 @@
         <v>3.62</v>
       </c>
       <c r="BD173" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:56" x14ac:dyDescent="0.2">
@@ -24216,7 +24561,7 @@
         <v>4.7</v>
       </c>
       <c r="BD174" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175" spans="1:56" x14ac:dyDescent="0.2">
@@ -24257,7 +24602,7 @@
         <v>4.8</v>
       </c>
       <c r="BD175" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:56" x14ac:dyDescent="0.2">
@@ -24283,7 +24628,7 @@
         <v>5.77</v>
       </c>
       <c r="BD176" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:56" x14ac:dyDescent="0.2">
@@ -24324,7 +24669,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="BD177" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="1:56" x14ac:dyDescent="0.2">
@@ -24365,7 +24710,7 @@
         <v>4.29</v>
       </c>
       <c r="BD178" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="1:56" x14ac:dyDescent="0.2">
@@ -24403,7 +24748,7 @@
         <v>4.78</v>
       </c>
       <c r="BD179" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
     </row>
     <row r="180" spans="1:56" x14ac:dyDescent="0.2">
@@ -24444,7 +24789,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="BD180" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="1:56" x14ac:dyDescent="0.2">
@@ -24473,7 +24818,7 @@
         <v>3.69</v>
       </c>
       <c r="BD181" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:56" x14ac:dyDescent="0.2">
@@ -24502,7 +24847,7 @@
         <v>3.88</v>
       </c>
       <c r="BD182" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="1:56" x14ac:dyDescent="0.2">
@@ -24543,7 +24888,7 @@
         <v>3.44</v>
       </c>
       <c r="BD183" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:56" x14ac:dyDescent="0.2">
@@ -24569,7 +24914,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="BD184" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="1:56" x14ac:dyDescent="0.2">
@@ -24589,7 +24934,7 @@
         <v>5.41</v>
       </c>
       <c r="BD185" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:56" x14ac:dyDescent="0.2">
@@ -24630,7 +24975,7 @@
         <v>4.24</v>
       </c>
       <c r="BD186" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:56" x14ac:dyDescent="0.2">
@@ -24671,7 +25016,7 @@
         <v>5.16</v>
       </c>
       <c r="BD187" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
     </row>
     <row r="188" spans="1:56" x14ac:dyDescent="0.2">
@@ -24712,7 +25057,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD188" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
     </row>
     <row r="189" spans="1:56" x14ac:dyDescent="0.2">
@@ -24753,7 +25098,7 @@
         <v>4.54</v>
       </c>
       <c r="BD189" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
     </row>
     <row r="190" spans="1:56" x14ac:dyDescent="0.2">
@@ -24794,7 +25139,7 @@
         <v>4.71</v>
       </c>
       <c r="BD190" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
     </row>
     <row r="191" spans="1:56" x14ac:dyDescent="0.2">
@@ -24835,7 +25180,7 @@
         <v>4.82</v>
       </c>
       <c r="BD191" t="s">
-        <v>442</v>
+        <v>512</v>
       </c>
     </row>
     <row r="192" spans="1:56" x14ac:dyDescent="0.2">
@@ -24864,7 +25209,7 @@
         <v>3.58</v>
       </c>
       <c r="BD192" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
     </row>
     <row r="193" spans="1:56" x14ac:dyDescent="0.2">
@@ -24905,7 +25250,7 @@
         <v>4.03</v>
       </c>
       <c r="BD193" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
     </row>
     <row r="194" spans="1:56" x14ac:dyDescent="0.2">
@@ -24946,7 +25291,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="BD194" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
     </row>
     <row r="195" spans="1:56" x14ac:dyDescent="0.2">
@@ -24972,7 +25317,7 @@
         <v>4.57</v>
       </c>
       <c r="BD195" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
     </row>
     <row r="196" spans="1:56" x14ac:dyDescent="0.2">
@@ -25013,7 +25358,7 @@
         <v>4.38</v>
       </c>
       <c r="BD196" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
     </row>
     <row r="197" spans="1:56" x14ac:dyDescent="0.2">
@@ -25033,7 +25378,7 @@
         <v>4.5</v>
       </c>
       <c r="BD197" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
     </row>
     <row r="198" spans="1:56" x14ac:dyDescent="0.2">
@@ -25074,7 +25419,7 @@
         <v>3.86</v>
       </c>
       <c r="BD198" t="s">
-        <v>442</v>
+        <v>519</v>
       </c>
     </row>
     <row r="199" spans="1:56" x14ac:dyDescent="0.2">
@@ -25103,7 +25448,7 @@
         <v>1.73</v>
       </c>
       <c r="BD199" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
     </row>
     <row r="200" spans="1:56" x14ac:dyDescent="0.2">
@@ -25129,7 +25474,7 @@
         <v>5.12</v>
       </c>
       <c r="BD200" t="s">
-        <v>442</v>
+        <v>521</v>
       </c>
     </row>
     <row r="201" spans="1:56" x14ac:dyDescent="0.2">
@@ -25170,7 +25515,7 @@
         <v>4.12</v>
       </c>
       <c r="BD201" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
     </row>
     <row r="202" spans="1:56" x14ac:dyDescent="0.2">
@@ -25193,7 +25538,7 @@
         <v>5.17</v>
       </c>
       <c r="BD202" t="s">
-        <v>442</v>
+        <v>523</v>
       </c>
     </row>
     <row r="203" spans="1:56" x14ac:dyDescent="0.2">
@@ -25213,7 +25558,7 @@
         <v>4.26</v>
       </c>
       <c r="BD203" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="1:56" x14ac:dyDescent="0.2">
@@ -25254,7 +25599,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="BD204" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" spans="1:56" x14ac:dyDescent="0.2">
@@ -25292,7 +25637,7 @@
         <v>5.27</v>
       </c>
       <c r="BD205" t="s">
-        <v>442</v>
+        <v>526</v>
       </c>
     </row>
     <row r="206" spans="1:56" x14ac:dyDescent="0.2">
@@ -25333,7 +25678,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="BD206" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
     </row>
     <row r="207" spans="1:56" x14ac:dyDescent="0.2">
@@ -25350,7 +25695,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD207" t="s">
-        <v>442</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="1:56" x14ac:dyDescent="0.2">
@@ -25379,7 +25724,7 @@
         <v>3.76</v>
       </c>
       <c r="BD208" t="s">
-        <v>442</v>
+        <v>529</v>
       </c>
     </row>
     <row r="209" spans="1:56" x14ac:dyDescent="0.2">
@@ -25402,7 +25747,7 @@
         <v>3.63</v>
       </c>
       <c r="BD209" t="s">
-        <v>442</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:56" x14ac:dyDescent="0.2">
@@ -25443,7 +25788,7 @@
         <v>4.49</v>
       </c>
       <c r="BD210" t="s">
-        <v>442</v>
+        <v>531</v>
       </c>
     </row>
     <row r="211" spans="1:56" x14ac:dyDescent="0.2">
@@ -25460,7 +25805,7 @@
         <v>5.13</v>
       </c>
       <c r="BD211" t="s">
-        <v>442</v>
+        <v>532</v>
       </c>
     </row>
     <row r="212" spans="1:56" x14ac:dyDescent="0.2">
@@ -25501,7 +25846,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="BD212" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
     </row>
     <row r="213" spans="1:56" x14ac:dyDescent="0.2">
@@ -25518,7 +25863,7 @@
         <v>1.85</v>
       </c>
       <c r="BD213" t="s">
-        <v>442</v>
+        <v>534</v>
       </c>
     </row>
     <row r="214" spans="1:56" x14ac:dyDescent="0.2">
@@ -25553,7 +25898,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="BD214" t="s">
-        <v>442</v>
+        <v>535</v>
       </c>
     </row>
     <row r="215" spans="1:56" x14ac:dyDescent="0.2">
@@ -25573,7 +25918,7 @@
         <v>2.96</v>
       </c>
       <c r="BD215" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="1:56" x14ac:dyDescent="0.2">
@@ -25599,7 +25944,7 @@
         <v>3.9</v>
       </c>
       <c r="BD216" t="s">
-        <v>442</v>
+        <v>537</v>
       </c>
     </row>
     <row r="217" spans="1:56" x14ac:dyDescent="0.2">
@@ -25628,7 +25973,7 @@
         <v>5.08</v>
       </c>
       <c r="BD217" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
     </row>
     <row r="218" spans="1:56" x14ac:dyDescent="0.2">
@@ -25669,7 +26014,7 @@
         <v>4.54</v>
       </c>
       <c r="BD218" t="s">
-        <v>442</v>
+        <v>539</v>
       </c>
     </row>
     <row r="219" spans="1:56" x14ac:dyDescent="0.2">
@@ -25710,7 +26055,7 @@
         <v>4.28</v>
       </c>
       <c r="BD219" t="s">
-        <v>442</v>
+        <v>540</v>
       </c>
     </row>
     <row r="220" spans="1:56" x14ac:dyDescent="0.2">
@@ -25751,7 +26096,7 @@
         <v>4.29</v>
       </c>
       <c r="BD220" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="1:56" x14ac:dyDescent="0.2">
@@ -25771,7 +26116,7 @@
         <v>5.36</v>
       </c>
       <c r="BD221" t="s">
-        <v>442</v>
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:56" x14ac:dyDescent="0.2">
@@ -25797,7 +26142,7 @@
         <v>1.43</v>
       </c>
       <c r="BD222" t="s">
-        <v>442</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="1:56" x14ac:dyDescent="0.2">
@@ -25820,7 +26165,7 @@
         <v>3.14</v>
       </c>
       <c r="BD223" t="s">
-        <v>442</v>
+        <v>544</v>
       </c>
     </row>
     <row r="224" spans="1:56" x14ac:dyDescent="0.2">
@@ -25861,7 +26206,7 @@
         <v>4.22</v>
       </c>
       <c r="BD224" t="s">
-        <v>442</v>
+        <v>545</v>
       </c>
     </row>
     <row r="225" spans="1:56" x14ac:dyDescent="0.2">
@@ -25890,7 +26235,7 @@
         <v>3.57</v>
       </c>
       <c r="BD225" t="s">
-        <v>442</v>
+        <v>546</v>
       </c>
     </row>
     <row r="226" spans="1:56" x14ac:dyDescent="0.2">
@@ -25928,7 +26273,7 @@
         <v>5.09</v>
       </c>
       <c r="BD226" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:56" x14ac:dyDescent="0.2">
@@ -25948,7 +26293,7 @@
         <v>4.62</v>
       </c>
       <c r="BD227" t="s">
-        <v>442</v>
+        <v>548</v>
       </c>
     </row>
     <row r="228" spans="1:56" x14ac:dyDescent="0.2">
@@ -25989,7 +26334,7 @@
         <v>3.84</v>
       </c>
       <c r="BD228" t="s">
-        <v>442</v>
+        <v>549</v>
       </c>
     </row>
     <row r="229" spans="1:56" x14ac:dyDescent="0.2">
@@ -26012,7 +26357,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="BD229" t="s">
-        <v>442</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="1:56" x14ac:dyDescent="0.2">
@@ -26050,7 +26395,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="BD230" t="s">
-        <v>442</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" spans="1:56" x14ac:dyDescent="0.2">
@@ -26091,7 +26436,7 @@
         <v>3.87</v>
       </c>
       <c r="BD231" t="s">
-        <v>442</v>
+        <v>552</v>
       </c>
     </row>
     <row r="232" spans="1:56" x14ac:dyDescent="0.2">
@@ -26111,7 +26456,7 @@
         <v>3.66</v>
       </c>
       <c r="BD232" t="s">
-        <v>442</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="1:56" x14ac:dyDescent="0.2">
@@ -26143,7 +26488,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="BD233" t="s">
-        <v>442</v>
+        <v>554</v>
       </c>
     </row>
     <row r="234" spans="1:56" x14ac:dyDescent="0.2">
@@ -26163,7 +26508,7 @@
         <v>3.63</v>
       </c>
       <c r="BD234" t="s">
-        <v>442</v>
+        <v>555</v>
       </c>
     </row>
     <row r="235" spans="1:56" x14ac:dyDescent="0.2">
@@ -26192,7 +26537,7 @@
         <v>5.18</v>
       </c>
       <c r="BD235" t="s">
-        <v>442</v>
+        <v>556</v>
       </c>
     </row>
     <row r="236" spans="1:56" x14ac:dyDescent="0.2">
@@ -26230,7 +26575,7 @@
         <v>4.46</v>
       </c>
       <c r="BD236" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
     </row>
     <row r="237" spans="1:56" x14ac:dyDescent="0.2">
@@ -26271,7 +26616,7 @@
         <v>4.92</v>
       </c>
       <c r="BD237" t="s">
-        <v>442</v>
+        <v>558</v>
       </c>
     </row>
     <row r="238" spans="1:56" x14ac:dyDescent="0.2">
@@ -26312,7 +26657,7 @@
         <v>3.5</v>
       </c>
       <c r="BD238" t="s">
-        <v>442</v>
+        <v>559</v>
       </c>
     </row>
     <row r="239" spans="1:56" x14ac:dyDescent="0.2">
@@ -26353,7 +26698,7 @@
         <v>4.05</v>
       </c>
       <c r="BD239" t="s">
-        <v>442</v>
+        <v>560</v>
       </c>
     </row>
     <row r="240" spans="1:56" x14ac:dyDescent="0.2">
@@ -26394,7 +26739,7 @@
         <v>4.08</v>
       </c>
       <c r="BD240" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
     </row>
     <row r="241" spans="1:56" x14ac:dyDescent="0.2">
@@ -26435,7 +26780,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="BD241" t="s">
-        <v>442</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="1:56" x14ac:dyDescent="0.2">
@@ -26476,7 +26821,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD242" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
     </row>
     <row r="243" spans="1:56" x14ac:dyDescent="0.2">
@@ -26517,7 +26862,7 @@
         <v>3.58</v>
       </c>
       <c r="BD243" t="s">
-        <v>442</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" spans="1:56" x14ac:dyDescent="0.2">
@@ -26558,7 +26903,7 @@
         <v>4.34</v>
       </c>
       <c r="BD244" t="s">
-        <v>442</v>
+        <v>565</v>
       </c>
     </row>
     <row r="245" spans="1:56" x14ac:dyDescent="0.2">
@@ -26587,7 +26932,7 @@
         <v>5.43</v>
       </c>
       <c r="BD245" t="s">
-        <v>442</v>
+        <v>566</v>
       </c>
     </row>
     <row r="246" spans="1:56" x14ac:dyDescent="0.2">
@@ -26628,7 +26973,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="BD246" t="s">
-        <v>442</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:56" x14ac:dyDescent="0.2">
@@ -26660,7 +27005,7 @@
         <v>1.92</v>
       </c>
       <c r="BD247" t="s">
-        <v>442</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
